--- a/Jogos_do_Dia_FlashScore/2023-05-26_Jogos_do_Dia_FlashScore.xlsx
+++ b/Jogos_do_Dia_FlashScore/2023-05-26_Jogos_do_Dia_FlashScore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FG75"/>
+  <dimension ref="A1:FG76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34650,56 +34650,56 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>FRANCE - NATIONAL</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>AD Cantolao</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Deportivo Garcilaso</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">APERTURA </t>
+          <t>ROUND 34</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5</v>
+        <v>3.54</v>
       </c>
       <c r="H68" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="I68" t="n">
-        <v>2.3</v>
+        <v>2.77</v>
       </c>
       <c r="J68" t="n">
-        <v>3.5</v>
+        <v>2.62</v>
       </c>
       <c r="K68" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L68" t="n">
-        <v>2.88</v>
+        <v>3.68</v>
       </c>
       <c r="M68" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="N68" t="n">
-        <v>3.25</v>
+        <v>3.04</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -34711,264 +34711,282 @@
         <v>1.75</v>
       </c>
       <c r="R68" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="U68" t="n">
         <v>2.63</v>
       </c>
       <c r="V68" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W68" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="X68" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
       </c>
       <c r="Y68" t="n">
-        <v>5.1</v>
+        <v>5.25</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="AC68" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AD68" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AE68" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
+      </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
       </c>
       <c r="AG68" t="n">
-        <v>4</v>
+        <v>2.91</v>
       </c>
       <c r="AH68" t="n">
-        <v>3.6</v>
+        <v>3.48</v>
       </c>
       <c r="AI68" t="n">
-        <v>1.75</v>
+        <v>2.28</v>
       </c>
       <c r="AJ68" t="n">
-        <v>2.8</v>
+        <v>2.12</v>
       </c>
       <c r="AK68" t="n">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="AL68" t="n">
-        <v>2.2</v>
+        <v>3.16</v>
       </c>
       <c r="AM68" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="AN68" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AO68" t="n">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.57</v>
+        <v>1.27</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AR68" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.91</v>
+        <v>2.24</v>
       </c>
       <c r="AU68" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AV68" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AW68" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AX68" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>12</v>
+        <v>9.9</v>
+      </c>
+      <c r="AY68" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="AZ68" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
       </c>
       <c r="BA68" t="n">
         <v>1.02</v>
       </c>
       <c r="BB68" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BC68" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="BD68" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="BE68" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BG68" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="BH68" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK68" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="BL68" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="BM68" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BO68" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="BP68" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="BQ68" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BS68" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="BT68" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="BU68" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BV68" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BW68" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="BX68" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="BY68" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BZ68" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="CA68" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="CB68" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="CC68" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="CD68" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CE68" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="CF68" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CG68" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="BC68" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="BD68" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="BE68" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BF68" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BG68" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BH68" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BI68" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BJ68" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="BK68" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="BL68" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="BM68" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BN68" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="BO68" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="BP68" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="BQ68" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="BR68" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="BS68" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="BT68" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="BU68" t="n">
-        <v>3</v>
-      </c>
-      <c r="BV68" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BW68" t="n">
-        <v>3</v>
-      </c>
-      <c r="BX68" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BY68" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BZ68" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="CA68" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="CB68" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="CC68" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="CD68" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="CE68" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="CF68" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="CG68" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="CH68" t="n">
         <v>1.02</v>
       </c>
       <c r="CI68" t="inlineStr">
         <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="CJ68" t="n">
-        <v>1.02</v>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="CJ68" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
       </c>
       <c r="CK68" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="CL68" t="n">
         <v>1.05</v>
       </c>
       <c r="CM68" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="CN68" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="CO68" t="inlineStr"/>
@@ -34976,179 +34994,167 @@
       <c r="CQ68" t="inlineStr"/>
       <c r="CR68" t="inlineStr"/>
       <c r="CS68" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="CT68" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="CU68" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="CV68" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="CW68" t="inlineStr"/>
       <c r="CX68" t="inlineStr"/>
       <c r="CY68" t="inlineStr"/>
       <c r="CZ68" t="inlineStr"/>
-      <c r="DA68" t="n">
-        <v>51</v>
-      </c>
-      <c r="DB68" t="n">
-        <v>51</v>
-      </c>
-      <c r="DC68" t="n">
-        <v>51</v>
-      </c>
-      <c r="DD68" t="n">
-        <v>51</v>
-      </c>
+      <c r="DA68" t="inlineStr"/>
+      <c r="DB68" t="inlineStr"/>
+      <c r="DC68" t="inlineStr"/>
+      <c r="DD68" t="inlineStr"/>
       <c r="DE68" t="inlineStr"/>
       <c r="DF68" t="inlineStr"/>
       <c r="DG68" t="inlineStr"/>
       <c r="DH68" t="inlineStr"/>
       <c r="DI68" t="n">
-        <v>3.45</v>
+        <v>2.15</v>
       </c>
       <c r="DJ68" t="n">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="DK68" t="n">
-        <v>3.9</v>
+        <v>2.51</v>
       </c>
       <c r="DL68" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="DM68" t="n">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="DN68" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="DO68" t="n">
-        <v>5.9</v>
+        <v>3.44</v>
       </c>
       <c r="DP68" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="DQ68" t="n">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="DR68" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="DS68" t="n">
-        <v>8.9</v>
+        <v>5.35</v>
       </c>
       <c r="DT68" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="DU68" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="DV68" t="n">
-        <v>2.5</v>
+        <v>3.76</v>
       </c>
       <c r="DW68" t="n">
-        <v>11.5</v>
+        <v>7.9</v>
       </c>
       <c r="DX68" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="DY68" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="DZ68" t="n">
-        <v>3.45</v>
+        <v>5.4</v>
       </c>
       <c r="EA68" t="inlineStr"/>
       <c r="EB68" t="inlineStr"/>
-      <c r="EC68" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="ED68" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="EC68" t="inlineStr"/>
+      <c r="ED68" t="inlineStr"/>
       <c r="EE68" t="inlineStr"/>
       <c r="EF68" t="inlineStr"/>
       <c r="EG68" t="inlineStr"/>
       <c r="EH68" t="inlineStr"/>
       <c r="EI68" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="EJ68" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="EK68" t="n">
+        <v>10</v>
+      </c>
+      <c r="EL68" t="n">
+        <v>18</v>
+      </c>
+      <c r="EM68" t="n">
         <v>8.5</v>
       </c>
-      <c r="EK68" t="n">
+      <c r="EN68" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="EO68" t="n">
+        <v>7</v>
+      </c>
+      <c r="EP68" t="n">
+        <v>14</v>
+      </c>
+      <c r="EQ68" t="n">
+        <v>12</v>
+      </c>
+      <c r="ER68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="ES68" t="n">
         <v>9.5</v>
       </c>
-      <c r="EL68" t="n">
-        <v>15</v>
-      </c>
-      <c r="EM68" t="n">
-        <v>13</v>
-      </c>
-      <c r="EN68" t="n">
-        <v>7</v>
-      </c>
-      <c r="EO68" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="EP68" t="n">
-        <v>13</v>
-      </c>
-      <c r="EQ68" t="n">
-        <v>21</v>
-      </c>
-      <c r="ER68" t="n">
-        <v>13</v>
-      </c>
-      <c r="ES68" t="n">
-        <v>15</v>
-      </c>
       <c r="ET68" t="n">
+        <v>19</v>
+      </c>
+      <c r="EU68" t="n">
+        <v>26</v>
+      </c>
+      <c r="EV68" t="n">
+        <v>18</v>
+      </c>
+      <c r="EW68" t="n">
         <v>23</v>
       </c>
-      <c r="EU68" t="n">
-        <v>41</v>
-      </c>
-      <c r="EV68" t="n">
-        <v>29</v>
-      </c>
-      <c r="EW68" t="n">
-        <v>34</v>
-      </c>
       <c r="EX68" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="EY68" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="EZ68" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="FA68" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="FB68" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="FC68" t="n">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="FD68" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="FE68" t="n">
         <v>67</v>
       </c>
       <c r="FF68" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="FG68" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69">
@@ -35159,337 +35165,325 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>AD Cantolao</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ROUND 34</t>
+          <t xml:space="preserve">APERTURA </t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>5</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W69" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="AC69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="BD69" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="BE69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK69" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="BL69" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="BM69" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BO69" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="BP69" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="BQ69" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BS69" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="BT69" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="BU69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV69" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BW69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX69" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BY69" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BZ69" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="CA69" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="CB69" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="CC69" t="n">
         <v>5.5</v>
       </c>
-      <c r="H69" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N69" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="Q69" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R69" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="U69" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V69" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W69" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X69" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="AC69" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD69" t="n">
+      <c r="CD69" t="n">
         <v>1.14</v>
       </c>
-      <c r="AE69" t="inlineStr">
+      <c r="CE69" t="inlineStr">
         <is>
           <t>6.00</t>
         </is>
       </c>
-      <c r="AF69" t="inlineStr">
+      <c r="CF69" t="inlineStr">
         <is>
           <t>1.13</t>
         </is>
       </c>
-      <c r="AG69" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AP69" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC69" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="BD69" t="inlineStr">
-        <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="BE69" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="BF69" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG69" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="BH69" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="BI69" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BJ69" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="BK69" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="BL69" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="BM69" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BN69" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BO69" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="BP69" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="BQ69" t="n">
-        <v>2</v>
-      </c>
-      <c r="BR69" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BS69" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="BT69" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="BU69" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BV69" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BW69" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BX69" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BY69" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="BZ69" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="CA69" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="CB69" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="CC69" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="CD69" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="CE69" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="CF69" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
       <c r="CG69" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="CH69" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="CI69" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="CJ69" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="CK69" t="n">
+        <v>11</v>
+      </c>
+      <c r="CL69" t="n">
         <v>1.05</v>
       </c>
-      <c r="CI69" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="CJ69" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="CK69" t="n">
-        <v>9</v>
-      </c>
-      <c r="CL69" t="n">
-        <v>1.07</v>
-      </c>
       <c r="CM69" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="CN69" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="CO69" t="inlineStr"/>
@@ -35497,174 +35491,176 @@
       <c r="CQ69" t="inlineStr"/>
       <c r="CR69" t="inlineStr"/>
       <c r="CS69" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="CT69" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="CU69" t="n">
-        <v>19</v>
+        <v>1.01</v>
+      </c>
+      <c r="CU69" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
       </c>
       <c r="CV69" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="CW69" t="inlineStr"/>
       <c r="CX69" t="inlineStr"/>
       <c r="CY69" t="inlineStr"/>
       <c r="CZ69" t="inlineStr"/>
       <c r="DA69" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="DB69" t="n">
-        <v>34</v>
-      </c>
-      <c r="DC69" t="inlineStr">
-        <is>
-          <t>41.00</t>
-        </is>
-      </c>
-      <c r="DD69" t="inlineStr">
-        <is>
-          <t>41.00</t>
-        </is>
+        <v>51</v>
+      </c>
+      <c r="DC69" t="n">
+        <v>51</v>
+      </c>
+      <c r="DD69" t="n">
+        <v>51</v>
       </c>
       <c r="DE69" t="inlineStr"/>
       <c r="DF69" t="inlineStr"/>
       <c r="DG69" t="inlineStr"/>
       <c r="DH69" t="inlineStr"/>
       <c r="DI69" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="DJ69" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="DK69" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="DL69" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="DM69" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="DN69" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="DO69" t="n">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="DP69" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="DQ69" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="DR69" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="DS69" t="inlineStr"/>
-      <c r="DT69" t="inlineStr"/>
+        <v>2.05</v>
+      </c>
+      <c r="DS69" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="DT69" t="n">
+        <v>1.04</v>
+      </c>
       <c r="DU69" t="n">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="DV69" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="DW69" t="inlineStr"/>
-      <c r="DX69" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="DW69" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="DX69" t="n">
+        <v>1.01</v>
+      </c>
       <c r="DY69" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="DZ69" t="n">
-        <v>2.67</v>
+        <v>3.45</v>
       </c>
       <c r="EA69" t="inlineStr"/>
       <c r="EB69" t="inlineStr"/>
       <c r="EC69" t="n">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="ED69" t="n">
-        <v>3.7</v>
+        <v>5.25</v>
       </c>
       <c r="EE69" t="inlineStr"/>
       <c r="EF69" t="inlineStr"/>
-      <c r="EG69" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="EH69" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="EG69" t="inlineStr"/>
+      <c r="EH69" t="inlineStr"/>
       <c r="EI69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="EJ69" t="n">
         <v>8.5</v>
       </c>
       <c r="EK69" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="EL69" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="EM69" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="EN69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EO69" t="n">
         <v>8.5</v>
       </c>
       <c r="EP69" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="EQ69" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="ER69" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="ES69" t="n">
         <v>15</v>
       </c>
       <c r="ET69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="EU69" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="EV69" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="EW69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="EX69" t="n">
         <v>41</v>
       </c>
       <c r="EY69" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="EZ69" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="FA69" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="FB69" t="n">
         <v>67</v>
       </c>
       <c r="FC69" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="FD69" t="n">
+        <v>67</v>
+      </c>
+      <c r="FE69" t="n">
+        <v>67</v>
+      </c>
+      <c r="FF69" t="n">
         <v>101</v>
-      </c>
-      <c r="FE69" t="n">
-        <v>101</v>
-      </c>
-      <c r="FF69" t="n">
-        <v>126</v>
       </c>
       <c r="FG69" t="n">
         <v>151</v>
@@ -35678,104 +35674,100 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Hartford Athletic</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ROUND 34</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="H70" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="I70" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>4.16</v>
+        <v>5.5</v>
       </c>
       <c r="K70" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L70" t="n">
-        <v>2.47</v>
+        <v>2.1</v>
       </c>
       <c r="M70" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="N70" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="R70" t="n">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="V70" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
+        <v>1.53</v>
+      </c>
+      <c r="W70" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.53</v>
       </c>
       <c r="Y70" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
@@ -35784,10 +35776,10 @@
         </is>
       </c>
       <c r="AC70" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AD70" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AE70" t="inlineStr">
         <is>
@@ -35796,231 +35788,223 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AG70" t="n">
-        <v>4.04</v>
+        <v>6.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="AI70" t="n">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="AJ70" t="n">
-        <v>3.66</v>
+        <v>5.5</v>
       </c>
       <c r="AK70" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="AL70" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="AM70" t="n">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="AN70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ70" t="n">
         <v>1.22</v>
       </c>
-      <c r="AO70" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AR70" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="AU70" t="n">
         <v>1.7</v>
       </c>
       <c r="AV70" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AW70" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AX70" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY70" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="AZ70" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC70" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="BD70" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="BE70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG70" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="BH70" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="BK70" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="BL70" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="BM70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BO70" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="BP70" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="BQ70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BS70" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="BT70" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="BU70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BV70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BW70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BX70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BY70" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BZ70" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="CA70" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="CB70" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="CC70" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="CD70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="CE70" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="CF70" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="CG70" t="n">
+        <v>7</v>
+      </c>
+      <c r="CH70" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="CI70" t="inlineStr">
         <is>
           <t>9.00</t>
         </is>
       </c>
-      <c r="BA70" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="BC70" t="inlineStr">
+      <c r="CJ70" t="inlineStr">
         <is>
           <t>1.06</t>
         </is>
       </c>
-      <c r="BD70" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="BE70" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BF70" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG70" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="BH70" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="BI70" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BJ70" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BK70" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="BL70" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="BM70" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="BN70" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BO70" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="BP70" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="BQ70" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="BR70" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BS70" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="BT70" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="BU70" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BV70" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BW70" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="BX70" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="BY70" t="n">
-        <v>4</v>
-      </c>
-      <c r="BZ70" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="CA70" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="CB70" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="CC70" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="CD70" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="CE70" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="CF70" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="CG70" t="n">
-        <v>8</v>
-      </c>
-      <c r="CH70" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="CI70" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="CJ70" t="inlineStr">
+      <c r="CK70" t="n">
+        <v>9</v>
+      </c>
+      <c r="CL70" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="CM70" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="CN70" t="inlineStr">
         <is>
           <t>1.06</t>
-        </is>
-      </c>
-      <c r="CK70" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="CL70" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="CM70" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="CN70" t="inlineStr">
-        <is>
-          <t>1.04</t>
         </is>
       </c>
       <c r="CO70" t="inlineStr"/>
@@ -36028,13 +36012,13 @@
       <c r="CQ70" t="inlineStr"/>
       <c r="CR70" t="inlineStr"/>
       <c r="CS70" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="CT70" t="n">
         <v>1.02</v>
       </c>
       <c r="CU70" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="CV70" t="n">
         <v>1.02</v>
@@ -36044,161 +36028,161 @@
       <c r="CY70" t="inlineStr"/>
       <c r="CZ70" t="inlineStr"/>
       <c r="DA70" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="DB70" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="DC70" t="n">
-        <v>17</v>
-      </c>
-      <c r="DD70" t="n">
-        <v>1.01</v>
+        <v>34</v>
+      </c>
+      <c r="DC70" t="inlineStr">
+        <is>
+          <t>41.00</t>
+        </is>
+      </c>
+      <c r="DD70" t="inlineStr">
+        <is>
+          <t>41.00</t>
+        </is>
       </c>
       <c r="DE70" t="inlineStr"/>
       <c r="DF70" t="inlineStr"/>
       <c r="DG70" t="inlineStr"/>
       <c r="DH70" t="inlineStr"/>
       <c r="DI70" t="n">
-        <v>2.98</v>
+        <v>4.8</v>
       </c>
       <c r="DJ70" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="DK70" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="DL70" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="DM70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="DN70" t="n">
         <v>1.32</v>
       </c>
-      <c r="DK70" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="DL70" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="DM70" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="DN70" t="n">
-        <v>1.52</v>
-      </c>
       <c r="DO70" t="n">
-        <v>5.6</v>
+        <v>7.3</v>
       </c>
       <c r="DP70" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="DQ70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="DR70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="DS70" t="inlineStr"/>
+      <c r="DT70" t="inlineStr"/>
+      <c r="DU70" t="n">
         <v>1.77</v>
       </c>
-      <c r="DR70" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="DS70" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="DT70" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="DU70" t="n">
-        <v>1.43</v>
-      </c>
       <c r="DV70" t="n">
-        <v>2.59</v>
+        <v>2.02</v>
       </c>
       <c r="DW70" t="inlineStr"/>
       <c r="DX70" t="inlineStr"/>
       <c r="DY70" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="DZ70" t="n">
-        <v>3.58</v>
+        <v>2.67</v>
       </c>
       <c r="EA70" t="inlineStr"/>
       <c r="EB70" t="inlineStr"/>
       <c r="EC70" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="ED70" t="n">
-        <v>5.25</v>
+        <v>3.7</v>
       </c>
       <c r="EE70" t="inlineStr"/>
       <c r="EF70" t="inlineStr"/>
       <c r="EG70" t="n">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="EH70" t="n">
-        <v>7.2</v>
+        <v>5.25</v>
       </c>
       <c r="EI70" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="EJ70" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="EK70" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="EL70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EM70" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="EN70" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="EO70" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="EP70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="EQ70" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="ER70" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="ES70" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="ET70" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="EU70" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="EV70" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="EW70" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="EX70" t="n">
         <v>41</v>
       </c>
       <c r="EY70" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="EZ70" t="n">
         <v>21</v>
       </c>
       <c r="FA70" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="FB70" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="FC70" t="n">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="FD70" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="FE70" t="n">
         <v>101</v>
       </c>
       <c r="FF70" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="FG70" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71">
@@ -36209,495 +36193,527 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Hartford Athletic</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Palmaflor</t>
+          <t>Sacramento Republic</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ROUND 15</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.67</v>
+        <v>4.6</v>
       </c>
       <c r="H71" t="n">
-        <v>2.75</v>
+        <v>2.26</v>
       </c>
       <c r="I71" t="n">
-        <v>8.5</v>
+        <v>2.25</v>
       </c>
       <c r="J71" t="n">
-        <v>2.05</v>
+        <v>4.16</v>
       </c>
       <c r="K71" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L71" t="n">
-        <v>5.5</v>
+        <v>2.47</v>
       </c>
       <c r="M71" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="N71" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P71" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
       </c>
       <c r="Q71" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="R71" t="n">
-        <v>2.54</v>
+        <v>2.14</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="V71" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="Y71" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AC71" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="AG71" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS71" t="n">
         <v>1.62</v>
       </c>
-      <c r="W71" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X71" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK71" t="n">
+      <c r="AT71" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY71" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="AZ71" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BC71" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="BD71" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="BE71" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BF71" t="n">
         <v>4</v>
       </c>
-      <c r="AL71" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AN71" t="n">
+      <c r="BG71" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="BH71" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK71" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="BL71" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="BM71" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BO71" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="BP71" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="BQ71" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BR71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BS71" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="BT71" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="BU71" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BV71" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BW71" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="BX71" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="BY71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BZ71" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="CA71" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="CB71" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="CC71" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="CD71" t="n">
         <v>1.14</v>
       </c>
-      <c r="AO71" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AW71" t="n">
+      <c r="CE71" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="CF71" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="CG71" t="n">
+        <v>8</v>
+      </c>
+      <c r="CH71" t="n">
         <v>1.03</v>
       </c>
-      <c r="AX71" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AZ71" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA71" t="n">
+      <c r="CI71" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="CJ71" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="CK71" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="CL71" t="n">
         <v>1.02</v>
       </c>
-      <c r="BB71" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="BC71" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="BD71" t="inlineStr">
-        <is>
-          <t>9.40</t>
-        </is>
-      </c>
-      <c r="BE71" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="BF71" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BG71" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="BH71" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BI71" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BJ71" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="BK71" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="BL71" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="BM71" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BN71" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BO71" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="BP71" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="BQ71" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BR71" t="n">
-        <v>2</v>
-      </c>
-      <c r="BS71" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="BT71" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="BU71" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BV71" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="BW71" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="BX71" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="BY71" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="BZ71" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="CA71" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="CB71" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="CC71" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="CD71" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="CE71" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="CF71" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="CG71" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="CH71" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="CI71" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="CJ71" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="CK71" t="n">
-        <v>8</v>
-      </c>
-      <c r="CL71" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="CM71" t="n">
-        <v>8</v>
-      </c>
-      <c r="CN71" t="n">
-        <v>1.08</v>
+      <c r="CM71" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="CN71" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
       </c>
       <c r="CO71" t="inlineStr"/>
       <c r="CP71" t="inlineStr"/>
       <c r="CQ71" t="inlineStr"/>
       <c r="CR71" t="inlineStr"/>
       <c r="CS71" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="CT71" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="CU71" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="CV71" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="CW71" t="inlineStr"/>
       <c r="CX71" t="inlineStr"/>
       <c r="CY71" t="inlineStr"/>
       <c r="CZ71" t="inlineStr"/>
       <c r="DA71" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="DB71" t="n">
         <v>1.01</v>
       </c>
       <c r="DC71" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="DD71" t="n">
         <v>1.01</v>
       </c>
-      <c r="DE71" t="n">
-        <v>51</v>
-      </c>
-      <c r="DF71" t="n">
-        <v>51</v>
-      </c>
-      <c r="DG71" t="n">
-        <v>51</v>
-      </c>
-      <c r="DH71" t="n">
-        <v>51</v>
-      </c>
+      <c r="DE71" t="inlineStr"/>
+      <c r="DF71" t="inlineStr"/>
+      <c r="DG71" t="inlineStr"/>
+      <c r="DH71" t="inlineStr"/>
       <c r="DI71" t="n">
-        <v>1.03</v>
+        <v>2.98</v>
       </c>
       <c r="DJ71" t="n">
-        <v>8</v>
+        <v>1.32</v>
       </c>
       <c r="DK71" t="n">
-        <v>1.16</v>
+        <v>3.42</v>
       </c>
       <c r="DL71" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="DM71" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="DN71" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="DO71" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="DP71" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="DQ71" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="DR71" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="DS71" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="DT71" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="DU71" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="DV71" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="DW71" t="inlineStr"/>
+      <c r="DX71" t="inlineStr"/>
+      <c r="DY71" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="DZ71" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="EA71" t="inlineStr"/>
+      <c r="EB71" t="inlineStr"/>
+      <c r="EC71" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="ED71" t="n">
         <v>5.25</v>
       </c>
-      <c r="DM71" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="DN71" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="DO71" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="DP71" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="DQ71" t="inlineStr"/>
-      <c r="DR71" t="inlineStr"/>
-      <c r="DS71" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="DT71" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="DU71" t="inlineStr"/>
-      <c r="DV71" t="inlineStr"/>
-      <c r="DW71" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="DX71" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="DY71" t="inlineStr"/>
-      <c r="DZ71" t="inlineStr"/>
-      <c r="EA71" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="EB71" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="EC71" t="inlineStr"/>
-      <c r="ED71" t="inlineStr"/>
-      <c r="EE71" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="EF71" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="EG71" t="inlineStr"/>
-      <c r="EH71" t="inlineStr"/>
+      <c r="EE71" t="inlineStr"/>
+      <c r="EF71" t="inlineStr"/>
+      <c r="EG71" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="EH71" t="n">
+        <v>7.2</v>
+      </c>
       <c r="EI71" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="EJ71" t="n">
-        <v>29</v>
+        <v>6.5</v>
       </c>
       <c r="EK71" t="n">
-        <v>51</v>
+        <v>7.5</v>
       </c>
       <c r="EL71" t="n">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="EM71" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="EN71" t="n">
+        <v>6</v>
+      </c>
+      <c r="EO71" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="EP71" t="n">
+        <v>10</v>
+      </c>
+      <c r="EQ71" t="n">
+        <v>20</v>
+      </c>
+      <c r="ER71" t="n">
         <v>11</v>
       </c>
-      <c r="EO71" t="n">
-        <v>29</v>
-      </c>
-      <c r="EP71" t="n">
-        <v>67</v>
-      </c>
-      <c r="EQ71" t="n">
-        <v>7</v>
-      </c>
-      <c r="ER71" t="n">
-        <v>9.5</v>
-      </c>
       <c r="ES71" t="n">
+        <v>10</v>
+      </c>
+      <c r="ET71" t="n">
+        <v>17</v>
+      </c>
+      <c r="EU71" t="n">
+        <v>46</v>
+      </c>
+      <c r="EV71" t="n">
+        <v>26</v>
+      </c>
+      <c r="EW71" t="n">
+        <v>31</v>
+      </c>
+      <c r="EX71" t="n">
+        <v>41</v>
+      </c>
+      <c r="EY71" t="n">
+        <v>23</v>
+      </c>
+      <c r="EZ71" t="n">
         <v>21</v>
       </c>
-      <c r="ET71" t="n">
-        <v>67</v>
-      </c>
-      <c r="EU71" t="n">
-        <v>8</v>
-      </c>
-      <c r="EV71" t="n">
-        <v>11</v>
-      </c>
-      <c r="EW71" t="n">
-        <v>26</v>
-      </c>
-      <c r="EX71" t="n">
-        <v>51</v>
-      </c>
-      <c r="EY71" t="n">
-        <v>351</v>
-      </c>
-      <c r="EZ71" t="n">
-        <v>251</v>
-      </c>
       <c r="FA71" t="n">
+        <v>36</v>
+      </c>
+      <c r="FB71" t="n">
+        <v>91</v>
+      </c>
+      <c r="FC71" t="n">
+        <v>176</v>
+      </c>
+      <c r="FD71" t="n">
+        <v>81</v>
+      </c>
+      <c r="FE71" t="n">
+        <v>101</v>
+      </c>
+      <c r="FF71" t="n">
         <v>201</v>
       </c>
-      <c r="FB71" t="n">
-        <v>251</v>
-      </c>
-      <c r="FC71" t="n">
-        <v>12</v>
-      </c>
-      <c r="FD71" t="n">
-        <v>17</v>
-      </c>
-      <c r="FE71" t="n">
-        <v>41</v>
-      </c>
-      <c r="FF71" t="n">
-        <v>81</v>
-      </c>
       <c r="FG71" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72">
@@ -36713,474 +36729,490 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>Palmaflor</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">FIRST STAGE </t>
+          <t>ROUND 15</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L72" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK72" t="n">
         <v>4</v>
       </c>
-      <c r="H72" t="n">
+      <c r="AL72" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BC72" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="BD72" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="BE72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BK72" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="BL72" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="BM72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BO72" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="BP72" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="BQ72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS72" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="BT72" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="BU72" t="n">
         <v>2.2</v>
       </c>
-      <c r="I72" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N72" t="n">
-        <v>3</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P72" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="U72" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V72" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W72" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="X72" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AQ72" t="n">
+      <c r="BV72" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BW72" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="BX72" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="BY72" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BZ72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="CA72" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="CB72" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="CC72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="CD72" t="n">
         <v>1.25</v>
       </c>
-      <c r="AR72" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AZ72" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="BD72" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BE72" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BF72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BG72" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="BH72" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="BI72" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BJ72" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="BK72" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BL72" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="BM72" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BN72" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BO72" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="BP72" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="BQ72" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="BR72" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BS72" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="BT72" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BU72" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="BV72" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BW72" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="BX72" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BY72" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BZ72" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="CA72" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="CB72" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="CC72" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="CD72" t="n">
-        <v>1.11</v>
-      </c>
       <c r="CE72" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="CF72" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="CG72" t="n">
-        <v>9.9</v>
+        <v>5.85</v>
       </c>
       <c r="CH72" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="CI72" t="n">
-        <v>9.9</v>
+        <v>5.85</v>
       </c>
       <c r="CJ72" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="CK72" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="CL72" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="CM72" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="CN72" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="CO72" t="inlineStr"/>
       <c r="CP72" t="inlineStr"/>
       <c r="CQ72" t="inlineStr"/>
       <c r="CR72" t="inlineStr"/>
       <c r="CS72" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="CT72" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="CU72" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="CV72" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="CW72" t="inlineStr"/>
       <c r="CX72" t="inlineStr"/>
       <c r="CY72" t="inlineStr"/>
       <c r="CZ72" t="inlineStr"/>
       <c r="DA72" t="n">
+        <v>29</v>
+      </c>
+      <c r="DB72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="DC72" t="n">
+        <v>29</v>
+      </c>
+      <c r="DD72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="DE72" t="n">
         <v>51</v>
       </c>
-      <c r="DB72" t="n">
+      <c r="DF72" t="n">
         <v>51</v>
       </c>
-      <c r="DC72" t="n">
+      <c r="DG72" t="n">
         <v>51</v>
       </c>
-      <c r="DD72" t="n">
+      <c r="DH72" t="n">
         <v>51</v>
       </c>
-      <c r="DE72" t="inlineStr"/>
-      <c r="DF72" t="inlineStr"/>
-      <c r="DG72" t="inlineStr"/>
-      <c r="DH72" t="inlineStr"/>
       <c r="DI72" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="DJ72" t="n">
+        <v>8</v>
+      </c>
+      <c r="DK72" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="DL72" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="DM72" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="DN72" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="DO72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="DP72" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="DQ72" t="inlineStr"/>
+      <c r="DR72" t="inlineStr"/>
+      <c r="DS72" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="DT72" t="n">
         <v>2.42</v>
       </c>
-      <c r="DJ72" t="n">
+      <c r="DU72" t="inlineStr"/>
+      <c r="DV72" t="inlineStr"/>
+      <c r="DW72" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="DX72" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="DY72" t="inlineStr"/>
+      <c r="DZ72" t="inlineStr"/>
+      <c r="EA72" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="EB72" t="n">
         <v>1.52</v>
       </c>
-      <c r="DK72" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="DL72" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="DM72" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="DN72" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="DO72" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="DP72" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="DQ72" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="DR72" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="DS72" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="DT72" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="DU72" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="DV72" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="DW72" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="DX72" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="DY72" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="DZ72" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="EA72" t="inlineStr"/>
-      <c r="EB72" t="inlineStr"/>
-      <c r="EC72" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="ED72" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="EE72" t="inlineStr"/>
-      <c r="EF72" t="inlineStr"/>
+      <c r="EC72" t="inlineStr"/>
+      <c r="ED72" t="inlineStr"/>
+      <c r="EE72" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="EF72" t="n">
+        <v>1.32</v>
+      </c>
       <c r="EG72" t="inlineStr"/>
       <c r="EH72" t="inlineStr"/>
       <c r="EI72" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="EJ72" t="n">
+        <v>29</v>
+      </c>
+      <c r="EK72" t="n">
+        <v>51</v>
+      </c>
+      <c r="EL72" t="n">
+        <v>151</v>
+      </c>
+      <c r="EM72" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="EN72" t="n">
+        <v>11</v>
+      </c>
+      <c r="EO72" t="n">
+        <v>29</v>
+      </c>
+      <c r="EP72" t="n">
+        <v>67</v>
+      </c>
+      <c r="EQ72" t="n">
+        <v>7</v>
+      </c>
+      <c r="ER72" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="ES72" t="n">
+        <v>21</v>
+      </c>
+      <c r="ET72" t="n">
+        <v>67</v>
+      </c>
+      <c r="EU72" t="n">
         <v>8</v>
       </c>
-      <c r="EK72" t="n">
-        <v>10</v>
-      </c>
-      <c r="EL72" t="n">
-        <v>19</v>
-      </c>
-      <c r="EM72" t="n">
+      <c r="EV72" t="n">
         <v>11</v>
       </c>
-      <c r="EN72" t="n">
-        <v>7</v>
-      </c>
-      <c r="EO72" t="n">
-        <v>9</v>
-      </c>
-      <c r="EP72" t="n">
-        <v>17</v>
-      </c>
-      <c r="EQ72" t="n">
-        <v>17</v>
-      </c>
-      <c r="ER72" t="n">
-        <v>12</v>
-      </c>
-      <c r="ES72" t="n">
-        <v>15</v>
-      </c>
-      <c r="ET72" t="n">
+      <c r="EW72" t="n">
         <v>26</v>
-      </c>
-      <c r="EU72" t="n">
-        <v>34</v>
-      </c>
-      <c r="EV72" t="n">
-        <v>26</v>
-      </c>
-      <c r="EW72" t="n">
-        <v>34</v>
       </c>
       <c r="EX72" t="n">
         <v>51</v>
       </c>
       <c r="EY72" t="n">
+        <v>351</v>
+      </c>
+      <c r="EZ72" t="n">
+        <v>251</v>
+      </c>
+      <c r="FA72" t="n">
+        <v>201</v>
+      </c>
+      <c r="FB72" t="n">
+        <v>251</v>
+      </c>
+      <c r="FC72" t="n">
+        <v>12</v>
+      </c>
+      <c r="FD72" t="n">
+        <v>17</v>
+      </c>
+      <c r="FE72" t="n">
         <v>41</v>
       </c>
-      <c r="EZ72" t="n">
-        <v>34</v>
-      </c>
-      <c r="FA72" t="n">
-        <v>51</v>
-      </c>
-      <c r="FB72" t="n">
+      <c r="FF72" t="n">
         <v>81</v>
       </c>
-      <c r="FC72" t="n">
-        <v>67</v>
-      </c>
-      <c r="FD72" t="n">
-        <v>51</v>
-      </c>
-      <c r="FE72" t="n">
-        <v>67</v>
-      </c>
-      <c r="FF72" t="n">
-        <v>101</v>
-      </c>
       <c r="FG72" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73">
@@ -37196,518 +37228,474 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Dep. Municipal</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">APERTURA </t>
+          <t xml:space="preserve">FIRST STAGE </t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.91</v>
+        <v>4</v>
       </c>
       <c r="H73" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="I73" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J73" t="n">
+        <v>4</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG73" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="BH73" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="BI73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO73" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="BP73" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="BQ73" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BR73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BT73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BV73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BW73" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BX73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BY73" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BZ73" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="CA73" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="CB73" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="CC73" t="n">
         <v>6.5</v>
       </c>
-      <c r="J73" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K73" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N73" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="Q73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R73" t="n">
-        <v>2</v>
-      </c>
-      <c r="S73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T73" t="n">
-        <v>2</v>
-      </c>
-      <c r="U73" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V73" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="Y73" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA73" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="AC73" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD73" t="n">
+      <c r="CD73" t="n">
         <v>1.11</v>
       </c>
-      <c r="AE73" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="AF73" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="AG73" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AR73" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AW73" t="n">
+      <c r="CE73" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="CF73" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="CG73" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="CH73" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CI73" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="CJ73" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CK73" t="n">
+        <v>13</v>
+      </c>
+      <c r="CL73" t="n">
         <v>1.04</v>
       </c>
-      <c r="AX73" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY73" t="n">
+      <c r="CM73" t="n">
+        <v>13</v>
+      </c>
+      <c r="CN73" t="n">
         <v>1.04</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="BC73" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="BD73" t="inlineStr">
-        <is>
-          <t>8.20</t>
-        </is>
-      </c>
-      <c r="BE73" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BF73" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG73" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="BH73" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="BI73" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BJ73" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="BK73" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="BL73" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="BM73" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BN73" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BO73" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="BP73" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="BQ73" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="BR73" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="BS73" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="BT73" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="BU73" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BV73" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BW73" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="BX73" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="BY73" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="BZ73" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="CA73" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="CB73" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="CC73" t="n">
-        <v>5</v>
-      </c>
-      <c r="CD73" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="CE73" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="CF73" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="CG73" t="n">
-        <v>8</v>
-      </c>
-      <c r="CH73" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="CI73" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="CJ73" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="CK73" t="n">
-        <v>11</v>
-      </c>
-      <c r="CL73" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="CM73" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="CN73" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
       </c>
       <c r="CO73" t="inlineStr"/>
       <c r="CP73" t="inlineStr"/>
       <c r="CQ73" t="inlineStr"/>
       <c r="CR73" t="inlineStr"/>
       <c r="CS73" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="CT73" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="CU73" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
-      <c r="CV73" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
+        <v>1.01</v>
+      </c>
+      <c r="CU73" t="n">
+        <v>26</v>
+      </c>
+      <c r="CV73" t="n">
+        <v>1.01</v>
       </c>
       <c r="CW73" t="inlineStr"/>
       <c r="CX73" t="inlineStr"/>
       <c r="CY73" t="inlineStr"/>
       <c r="CZ73" t="inlineStr"/>
       <c r="DA73" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="DB73" t="n">
-        <v>41</v>
-      </c>
-      <c r="DC73" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="DD73" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
+        <v>51</v>
+      </c>
+      <c r="DC73" t="n">
+        <v>51</v>
+      </c>
+      <c r="DD73" t="n">
+        <v>51</v>
       </c>
       <c r="DE73" t="inlineStr"/>
       <c r="DF73" t="inlineStr"/>
       <c r="DG73" t="inlineStr"/>
       <c r="DH73" t="inlineStr"/>
       <c r="DI73" t="n">
-        <v>1.13</v>
+        <v>2.42</v>
       </c>
       <c r="DJ73" t="n">
-        <v>5.9</v>
+        <v>1.52</v>
       </c>
       <c r="DK73" t="n">
-        <v>1.27</v>
+        <v>2.85</v>
       </c>
       <c r="DL73" t="n">
-        <v>3.55</v>
+        <v>1.4</v>
       </c>
       <c r="DM73" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="DN73" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="DO73" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="DP73" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="DQ73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="DR73" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="DS73" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="DT73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="DU73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="DV73" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="DW73" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="DX73" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="DY73" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="DZ73" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="EA73" t="inlineStr"/>
+      <c r="EB73" t="inlineStr"/>
+      <c r="EC73" t="n">
         <v>1.11</v>
       </c>
-      <c r="DN73" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="DO73" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="DP73" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="DQ73" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="DR73" t="n">
-        <v>7</v>
-      </c>
-      <c r="DS73" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="DT73" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="DU73" t="inlineStr"/>
-      <c r="DV73" t="inlineStr"/>
-      <c r="DW73" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="DX73" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="DY73" t="inlineStr"/>
-      <c r="DZ73" t="inlineStr"/>
-      <c r="EA73" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="EB73" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="EC73" t="inlineStr"/>
-      <c r="ED73" t="inlineStr"/>
-      <c r="EE73" t="n">
-        <v>5</v>
-      </c>
-      <c r="EF73" t="n">
-        <v>1.17</v>
-      </c>
+      <c r="ED73" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="EE73" t="inlineStr"/>
+      <c r="EF73" t="inlineStr"/>
       <c r="EG73" t="inlineStr"/>
       <c r="EH73" t="inlineStr"/>
       <c r="EI73" t="n">
         <v>12</v>
       </c>
       <c r="EJ73" t="n">
+        <v>8</v>
+      </c>
+      <c r="EK73" t="n">
+        <v>10</v>
+      </c>
+      <c r="EL73" t="n">
         <v>19</v>
       </c>
-      <c r="EK73" t="n">
-        <v>41</v>
-      </c>
-      <c r="EL73" t="n">
-        <v>81</v>
-      </c>
       <c r="EM73" t="n">
+        <v>11</v>
+      </c>
+      <c r="EN73" t="n">
         <v>7</v>
       </c>
-      <c r="EN73" t="n">
-        <v>8.5</v>
-      </c>
       <c r="EO73" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="EP73" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="EQ73" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="ER73" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="ES73" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="ET73" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="EU73" t="n">
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="EV73" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="EW73" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="EX73" t="n">
         <v>51</v>
       </c>
       <c r="EY73" t="n">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="EZ73" t="n">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="FA73" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="FB73" t="n">
+        <v>81</v>
+      </c>
+      <c r="FC73" t="n">
+        <v>67</v>
+      </c>
+      <c r="FD73" t="n">
+        <v>51</v>
+      </c>
+      <c r="FE73" t="n">
+        <v>67</v>
+      </c>
+      <c r="FF73" t="n">
+        <v>101</v>
+      </c>
+      <c r="FG73" t="n">
         <v>201</v>
-      </c>
-      <c r="FC73" t="n">
-        <v>17</v>
-      </c>
-      <c r="FD73" t="n">
-        <v>21</v>
-      </c>
-      <c r="FE73" t="n">
-        <v>41</v>
-      </c>
-      <c r="FF73" t="n">
-        <v>81</v>
-      </c>
-      <c r="FG73" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="74">
@@ -37718,432 +37706,472 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ARGENTINA - LIGA PROFESIONAL</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Arsenal Sarandi</t>
+          <t>Dep. Municipal</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ROUND 18</t>
+          <t xml:space="preserve">APERTURA </t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="H74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="Y74" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AC74" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="AG74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BC74" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="BD74" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="BE74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG74" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="BH74" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BK74" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="BL74" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="BM74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN74" t="n">
         <v>2.1</v>
       </c>
-      <c r="I74" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L74" t="n">
-        <v>6</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N74" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P74" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="U74" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V74" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W74" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="X74" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AA74" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="AB74" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AI74" t="n">
+      <c r="BO74" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="BP74" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="BQ74" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BR74" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BS74" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="BT74" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="BU74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BV74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BW74" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="BX74" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="BY74" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BZ74" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="CA74" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="CB74" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="CC74" t="n">
         <v>5</v>
       </c>
-      <c r="AJ74" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AM74" t="n">
+      <c r="CD74" t="n">
         <v>1.17</v>
       </c>
-      <c r="AN74" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AZ74" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="BA74" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="BC74" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="BD74" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="BE74" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BG74" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="BH74" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="BI74" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="BJ74" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="BK74" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="BL74" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="BM74" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BN74" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BO74" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="BP74" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="BQ74" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="BR74" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BS74" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="BT74" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="BU74" t="n">
-        <v>4</v>
-      </c>
-      <c r="BV74" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BW74" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="BX74" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="BY74" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="BZ74" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="CA74" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="CB74" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="CC74" t="n">
-        <v>9</v>
-      </c>
-      <c r="CD74" t="n">
-        <v>1.07</v>
-      </c>
       <c r="CE74" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="CF74" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="CG74" t="inlineStr"/>
-      <c r="CH74" t="inlineStr"/>
-      <c r="CI74" t="inlineStr"/>
-      <c r="CJ74" t="inlineStr"/>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="CG74" t="n">
+        <v>8</v>
+      </c>
+      <c r="CH74" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="CI74" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="CJ74" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
       <c r="CK74" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="CL74" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="CM74" t="n">
-        <v>19</v>
-      </c>
-      <c r="CN74" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
+      </c>
+      <c r="CM74" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="CN74" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
       </c>
       <c r="CO74" t="inlineStr"/>
       <c r="CP74" t="inlineStr"/>
       <c r="CQ74" t="inlineStr"/>
       <c r="CR74" t="inlineStr"/>
       <c r="CS74" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="CT74" t="n">
-        <v>41</v>
-      </c>
-      <c r="CU74" t="n">
-        <v>41</v>
-      </c>
-      <c r="CV74" t="n">
-        <v>41</v>
+        <v>1.02</v>
+      </c>
+      <c r="CU74" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="CV74" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
       </c>
       <c r="CW74" t="inlineStr"/>
       <c r="CX74" t="inlineStr"/>
       <c r="CY74" t="inlineStr"/>
       <c r="CZ74" t="inlineStr"/>
-      <c r="DA74" t="inlineStr"/>
-      <c r="DB74" t="inlineStr"/>
-      <c r="DC74" t="inlineStr"/>
-      <c r="DD74" t="inlineStr"/>
+      <c r="DA74" t="n">
+        <v>41</v>
+      </c>
+      <c r="DB74" t="n">
+        <v>41</v>
+      </c>
+      <c r="DC74" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="DD74" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
       <c r="DE74" t="inlineStr"/>
       <c r="DF74" t="inlineStr"/>
       <c r="DG74" t="inlineStr"/>
       <c r="DH74" t="inlineStr"/>
       <c r="DI74" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="DJ74" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="DK74" t="n">
         <v>1.27</v>
       </c>
-      <c r="DJ74" t="n">
+      <c r="DL74" t="n">
         <v>3.55</v>
       </c>
-      <c r="DK74" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="DL74" t="n">
-        <v>2.67</v>
-      </c>
       <c r="DM74" t="n">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="DN74" t="n">
-        <v>4.15</v>
+        <v>6.4</v>
       </c>
       <c r="DO74" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="DP74" t="n">
-        <v>1.98</v>
+        <v>2.5</v>
       </c>
       <c r="DQ74" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="DR74" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="DS74" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="DT74" t="n">
-        <v>1.48</v>
+        <v>1.9</v>
       </c>
       <c r="DU74" t="inlineStr"/>
       <c r="DV74" t="inlineStr"/>
       <c r="DW74" t="n">
-        <v>3.55</v>
+        <v>2.5</v>
       </c>
       <c r="DX74" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="DY74" t="inlineStr"/>
       <c r="DZ74" t="inlineStr"/>
       <c r="EA74" t="n">
-        <v>5.9</v>
+        <v>3.45</v>
       </c>
       <c r="EB74" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="EC74" t="inlineStr"/>
       <c r="ED74" t="inlineStr"/>
       <c r="EE74" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="EF74" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="EG74" t="inlineStr"/>
       <c r="EH74" t="inlineStr"/>
       <c r="EI74" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="EJ74" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="EK74" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="EL74" t="n">
+        <v>81</v>
+      </c>
+      <c r="EM74" t="n">
+        <v>7</v>
+      </c>
+      <c r="EN74" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="EO74" t="n">
+        <v>21</v>
+      </c>
+      <c r="EP74" t="n">
         <v>51</v>
-      </c>
-      <c r="EM74" t="n">
-        <v>6</v>
-      </c>
-      <c r="EN74" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="EO74" t="n">
-        <v>17</v>
-      </c>
-      <c r="EP74" t="n">
-        <v>41</v>
       </c>
       <c r="EQ74" t="n">
         <v>7</v>
@@ -38158,43 +38186,43 @@
         <v>51</v>
       </c>
       <c r="EU74" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="EV74" t="n">
         <v>12</v>
       </c>
-      <c r="EV74" t="n">
-        <v>15</v>
-      </c>
       <c r="EW74" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EX74" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="EY74" t="n">
+        <v>251</v>
+      </c>
+      <c r="EZ74" t="n">
         <v>151</v>
       </c>
-      <c r="EZ74" t="n">
-        <v>126</v>
-      </c>
       <c r="FA74" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="FB74" t="n">
         <v>201</v>
       </c>
       <c r="FC74" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="FD74" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="FE74" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="FF74" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="FG74" t="n">
-        <v>451</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75">
@@ -38205,522 +38233,1009 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>ARGENTINA - LIGA PROFESIONAL</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Phoenix Rising</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ROUND 18</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.09</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="I75" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J75" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="K75" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L75" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="M75" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="N75" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
+        <v>2.63</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2.63</v>
       </c>
       <c r="Q75" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG75" t="n">
         <v>1.67</v>
       </c>
-      <c r="R75" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="U75" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V75" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="Y75" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AA75" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="AB75" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="AC75" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AE75" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="AF75" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="AG75" t="n">
-        <v>1.58</v>
-      </c>
       <c r="AH75" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AI75" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AK75" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AL75" t="n">
-        <v>5.05</v>
+        <v>5.25</v>
       </c>
       <c r="AM75" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AN75" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AO75" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AR75" t="n">
         <v>2.25</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="AU75" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AV75" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AW75" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AX75" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY75" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>1.07</v>
       </c>
       <c r="AZ75" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="BA75" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="BB75" t="n">
-        <v>9.5</v>
+        <v>6.45</v>
       </c>
       <c r="BC75" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="BD75" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="BE75" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="BF75" t="n">
-        <v>3.74</v>
+        <v>2.75</v>
       </c>
       <c r="BG75" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="BH75" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="BI75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK75" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="BL75" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="BM75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO75" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="BP75" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="BQ75" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BR75" t="n">
         <v>1.32</v>
       </c>
-      <c r="BJ75" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="BK75" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="BL75" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="BM75" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BN75" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="BO75" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="BP75" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="BQ75" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="BR75" t="n">
-        <v>1.6</v>
-      </c>
       <c r="BS75" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="BT75" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="BU75" t="n">
-        <v>2.71</v>
+        <v>4</v>
       </c>
       <c r="BV75" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="BW75" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="BX75" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="BY75" t="n">
-        <v>4.24</v>
+        <v>6.75</v>
       </c>
       <c r="BZ75" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="CA75" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="CB75" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="CC75" t="n">
-        <v>4.9</v>
+        <v>9</v>
       </c>
       <c r="CD75" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="CE75" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="CF75" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="CG75" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="CH75" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="CI75" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="CJ75" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="CG75" t="inlineStr"/>
+      <c r="CH75" t="inlineStr"/>
+      <c r="CI75" t="inlineStr"/>
+      <c r="CJ75" t="inlineStr"/>
       <c r="CK75" t="n">
-        <v>9.1</v>
+        <v>19</v>
       </c>
       <c r="CL75" t="n">
         <v>1.02</v>
       </c>
-      <c r="CM75" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="CN75" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
+      <c r="CM75" t="n">
+        <v>19</v>
+      </c>
+      <c r="CN75" t="n">
+        <v>1.02</v>
       </c>
       <c r="CO75" t="inlineStr"/>
       <c r="CP75" t="inlineStr"/>
       <c r="CQ75" t="inlineStr"/>
       <c r="CR75" t="inlineStr"/>
       <c r="CS75" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="CT75" t="n">
-        <v>1.02</v>
+        <v>41</v>
       </c>
       <c r="CU75" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="CV75" t="n">
-        <v>1.02</v>
+        <v>41</v>
       </c>
       <c r="CW75" t="inlineStr"/>
       <c r="CX75" t="inlineStr"/>
       <c r="CY75" t="inlineStr"/>
       <c r="CZ75" t="inlineStr"/>
-      <c r="DA75" t="n">
-        <v>17</v>
-      </c>
-      <c r="DB75" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="DC75" t="n">
-        <v>17</v>
-      </c>
-      <c r="DD75" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="DA75" t="inlineStr"/>
+      <c r="DB75" t="inlineStr"/>
+      <c r="DC75" t="inlineStr"/>
+      <c r="DD75" t="inlineStr"/>
       <c r="DE75" t="inlineStr"/>
       <c r="DF75" t="inlineStr"/>
       <c r="DG75" t="inlineStr"/>
       <c r="DH75" t="inlineStr"/>
       <c r="DI75" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="DJ75" t="n">
-        <v>3.74</v>
+        <v>3.55</v>
       </c>
       <c r="DK75" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="DL75" t="n">
-        <v>2.79</v>
+        <v>2.67</v>
       </c>
       <c r="DM75" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="DN75" t="n">
-        <v>4.32</v>
+        <v>4.15</v>
       </c>
       <c r="DO75" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="DP75" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="DQ75" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="DR75" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="DS75" t="n">
-        <v>2.23</v>
+        <v>2.6</v>
       </c>
       <c r="DT75" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="DU75" t="inlineStr"/>
       <c r="DV75" t="inlineStr"/>
       <c r="DW75" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="DX75" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="DY75" t="inlineStr"/>
       <c r="DZ75" t="inlineStr"/>
       <c r="EA75" t="n">
-        <v>4.36</v>
+        <v>5.9</v>
       </c>
       <c r="EB75" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="EC75" t="inlineStr"/>
       <c r="ED75" t="inlineStr"/>
       <c r="EE75" t="n">
-        <v>5.95</v>
+        <v>6.8</v>
       </c>
       <c r="EF75" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="EG75" t="inlineStr"/>
       <c r="EH75" t="inlineStr"/>
       <c r="EI75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="EJ75" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EK75" t="n">
         <v>26</v>
       </c>
       <c r="EL75" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="EM75" t="n">
         <v>6</v>
       </c>
       <c r="EN75" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="EO75" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="EP75" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="EQ75" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="ER75" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="ES75" t="n">
+        <v>19</v>
+      </c>
+      <c r="ET75" t="n">
+        <v>51</v>
+      </c>
+      <c r="EU75" t="n">
         <v>12</v>
       </c>
-      <c r="ET75" t="n">
-        <v>41</v>
-      </c>
-      <c r="EU75" t="n">
-        <v>9</v>
-      </c>
       <c r="EV75" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="EW75" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="EX75" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="EY75" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="EZ75" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="FA75" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="FB75" t="n">
         <v>201</v>
       </c>
       <c r="FC75" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="FD75" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="FE75" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="FF75" t="n">
         <v>126</v>
       </c>
       <c r="FG75" t="n">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>26/05/2023</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Phoenix Rising</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Las Vegas Lights</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="Y76" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AC76" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="AG76" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY76" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="AZ76" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BC76" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="BD76" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="BE76" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BG76" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="BH76" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK76" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="BL76" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="BM76" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BO76" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="BP76" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="BQ76" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BR76" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BS76" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="BT76" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="BU76" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BV76" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BW76" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="BX76" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="BY76" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BZ76" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="CA76" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="CB76" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="CC76" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="CD76" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="CE76" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="CF76" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="CG76" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="CH76" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="CI76" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="CJ76" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="CK76" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="CL76" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="CM76" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="CN76" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="CO76" t="inlineStr"/>
+      <c r="CP76" t="inlineStr"/>
+      <c r="CQ76" t="inlineStr"/>
+      <c r="CR76" t="inlineStr"/>
+      <c r="CS76" t="n">
+        <v>12</v>
+      </c>
+      <c r="CT76" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="CU76" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV76" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="CW76" t="inlineStr"/>
+      <c r="CX76" t="inlineStr"/>
+      <c r="CY76" t="inlineStr"/>
+      <c r="CZ76" t="inlineStr"/>
+      <c r="DA76" t="n">
+        <v>17</v>
+      </c>
+      <c r="DB76" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="DC76" t="n">
+        <v>17</v>
+      </c>
+      <c r="DD76" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="DE76" t="inlineStr"/>
+      <c r="DF76" t="inlineStr"/>
+      <c r="DG76" t="inlineStr"/>
+      <c r="DH76" t="inlineStr"/>
+      <c r="DI76" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="DJ76" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="DK76" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="DL76" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="DM76" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="DN76" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="DO76" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="DP76" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="DQ76" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="DR76" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="DS76" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="DT76" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="DU76" t="inlineStr"/>
+      <c r="DV76" t="inlineStr"/>
+      <c r="DW76" t="n">
+        <v>3</v>
+      </c>
+      <c r="DX76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="DY76" t="inlineStr"/>
+      <c r="DZ76" t="inlineStr"/>
+      <c r="EA76" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="EB76" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="EC76" t="inlineStr"/>
+      <c r="ED76" t="inlineStr"/>
+      <c r="EE76" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="EF76" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="EG76" t="inlineStr"/>
+      <c r="EH76" t="inlineStr"/>
+      <c r="EI76" t="n">
+        <v>10</v>
+      </c>
+      <c r="EJ76" t="n">
+        <v>13</v>
+      </c>
+      <c r="EK76" t="n">
+        <v>26</v>
+      </c>
+      <c r="EL76" t="n">
+        <v>67</v>
+      </c>
+      <c r="EM76" t="n">
+        <v>6</v>
+      </c>
+      <c r="EN76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="EO76" t="n">
+        <v>14</v>
+      </c>
+      <c r="EP76" t="n">
+        <v>36</v>
+      </c>
+      <c r="EQ76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="ER76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="ES76" t="n">
+        <v>12</v>
+      </c>
+      <c r="ET76" t="n">
+        <v>41</v>
+      </c>
+      <c r="EU76" t="n">
+        <v>9</v>
+      </c>
+      <c r="EV76" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="EW76" t="n">
+        <v>18</v>
+      </c>
+      <c r="EX76" t="n">
+        <v>56</v>
+      </c>
+      <c r="EY76" t="n">
+        <v>201</v>
+      </c>
+      <c r="EZ76" t="n">
+        <v>151</v>
+      </c>
+      <c r="FA76" t="n">
+        <v>151</v>
+      </c>
+      <c r="FB76" t="n">
+        <v>201</v>
+      </c>
+      <c r="FC76" t="n">
+        <v>19</v>
+      </c>
+      <c r="FD76" t="n">
+        <v>20</v>
+      </c>
+      <c r="FE76" t="n">
+        <v>36</v>
+      </c>
+      <c r="FF76" t="n">
+        <v>126</v>
+      </c>
+      <c r="FG76" t="n">
         <v>201</v>
       </c>
     </row>
